--- a/concrete_case/cc_veh_noload.xlsx
+++ b/concrete_case/cc_veh_noload.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>主车以限速行驶，无目标巡航 (500mcurve)</t>
+          <t>主车以限速行驶，无目标巡航 (500m_curve)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>主车以限速行驶，无目标巡航 (700mcurve)</t>
+          <t>主车以限速行驶，无目标巡航 (700m_curve)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>主车以限速行驶，无目标巡航 (1%uphill)</t>
+          <t>主车以限速行驶，无目标巡航 (1%_uphill)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>主车以限速行驶，无目标巡航 (3%uphill)</t>
+          <t>主车以限速行驶，无目标巡航 (3%_uphill)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>主车以限速行驶，无目标巡航 (1%downhill)</t>
+          <t>主车以限速行驶，无目标巡航 (1%_downhill)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>主车以限速行驶，无目标巡航 (3%downhill)</t>
+          <t>主车以限速行驶，无目标巡航 (3%_downhill)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>主车以hv_initial进AD后，加速至限速 (平直路)</t>
+          <t>主车以40kph进AD后，加速至限速 (平直路)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>主车以hv_initial进AD后，加速至限速 (1%uphill)</t>
+          <t>主车以40kph进AD后，加速至限速 (1%_uphill)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>主车以hv_initial进AD后，加速至限速 (3%uphill)</t>
+          <t>主车以40kph进AD后，加速至限速 (3%_uphill)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>主车以hv_initial进AD后，加速至限速 (1%downhill)</t>
+          <t>主车以40kph进AD后，加速至限速 (1%_downhill)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>主车以hv_initial进AD后，加速至限速 (3%downhill)</t>
+          <t>主车以40kph进AD后，加速至限速 (3%_downhill)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1406,72 +1406,3496 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>CC-2-1-6</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>主车以60kph进AD后，加速至限速 (平直路)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>平直路</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）能够在合理时间加速到限速；
+5）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CC-2-1-7</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>主车以60kph进AD后，加速至限速 (1%_uphill)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>uphill</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）能够在合理时间加速到限速；
+5）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CC-2-1-8</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>主车以60kph进AD后，加速至限速 (3%_uphill)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>uphill</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）能够在合理时间加速到限速；
+5）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CC-2-1-9</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>主车以60kph进AD后，加速至限速 (1%_downhill)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>downhill</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）能够在合理时间加速到限速；
+5）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CC-2-1-10</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>主车以60kph进AD后，加速至限速 (3%_downhill)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>downhill</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）能够在合理时间加速到限速；
+5）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CC-2-1-11</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>主车以80kph进AD后，加速至限速 (平直路)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>平直路</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）能够在合理时间加速到限速；
+5）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CC-2-1-12</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>主车以80kph进AD后，加速至限速 (1%_uphill)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>uphill</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）能够在合理时间加速到限速；
+5）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CC-2-1-13</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>主车以80kph进AD后，加速至限速 (3%_uphill)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>uphill</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）能够在合理时间加速到限速；
+5）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CC-2-1-14</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>主车以80kph进AD后，加速至限速 (1%_downhill)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>downhill</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）能够在合理时间加速到限速；
+5）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CC-2-1-15</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>主车以80kph进AD后，加速至限速 (3%_downhill)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>downhill</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）能够在合理时间加速到限速；
+5）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CC-3-1-1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>主车以40kph进AD，车身与轨迹向左偏差10cm（尚未触发lane departure） (平直路)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>平直路</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CC-3-1-2</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>主车以40kph进AD，车身与轨迹向左偏差10cm（尚未触发lane departure） (500m_curve)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CC-3-1-3</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>主车以40kph进AD，车身与轨迹向左偏差10cm（尚未触发lane departure） (700m_curve)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CC-3-1-4</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>主车以60kph进AD，车身与轨迹向左偏差10cm（尚未触发lane departure） (平直路)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>平直路</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CC-3-1-5</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>主车以60kph进AD，车身与轨迹向左偏差10cm（尚未触发lane departure） (500m_curve)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CC-3-1-6</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>主车以60kph进AD，车身与轨迹向左偏差10cm（尚未触发lane departure） (700m_curve)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CC-3-1-7</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>主车以40kph进AD，车身与轨迹向左偏差20cm（尚未触发lane departure） (平直路)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>平直路</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CC-3-1-8</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>主车以40kph进AD，车身与轨迹向左偏差20cm（尚未触发lane departure） (500m_curve)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CC-3-1-9</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>主车以40kph进AD，车身与轨迹向左偏差20cm（尚未触发lane departure） (700m_curve)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CC-3-1-10</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>主车以60kph进AD，车身与轨迹向左偏差20cm（尚未触发lane departure） (平直路)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>平直路</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CC-3-1-11</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>主车以60kph进AD，车身与轨迹向左偏差20cm（尚未触发lane departure） (500m_curve)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CC-3-1-12</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>主车以60kph进AD，车身与轨迹向左偏差20cm（尚未触发lane departure） (700m_curve)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CC-3-1-13</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>主车以40kph进AD，车身与轨迹向左偏差30cm（尚未触发lane departure） (平直路)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>平直路</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CC-3-1-14</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>主车以40kph进AD，车身与轨迹向左偏差30cm（尚未触发lane departure） (500m_curve)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CC-3-1-15</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>主车以40kph进AD，车身与轨迹向左偏差30cm（尚未触发lane departure） (700m_curve)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>CC-3-1-16</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>主车以60kph进AD，车身与轨迹向左偏差30cm（尚未触发lane departure） (平直路)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>平直路</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>CC-3-1-17</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>主车以60kph进AD，车身与轨迹向左偏差30cm（尚未触发lane departure） (500m_curve)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CC-3-1-18</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>主车以60kph进AD，车身与轨迹向左偏差30cm（尚未触发lane departure） (700m_curve)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>CC-3-2-1</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>主车以40kph进AD，车身与轨迹向右偏差10cm（尚未触发lane departure） (平直路)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>平直路</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CC-3-2-2</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>主车以40kph进AD，车身与轨迹向右偏差10cm（尚未触发lane departure） (500m_curve)</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CC-3-2-3</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>主车以40kph进AD，车身与轨迹向右偏差10cm（尚未触发lane departure） (700m_curve)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CC-3-2-4</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>主车以60kph进AD，车身与轨迹向右偏差10cm（尚未触发lane departure） (平直路)</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>平直路</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CC-3-2-5</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>主车以60kph进AD，车身与轨迹向右偏差10cm（尚未触发lane departure） (500m_curve)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>CC-3-2-6</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>主车以60kph进AD，车身与轨迹向右偏差10cm（尚未触发lane departure） (700m_curve)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CC-3-2-7</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>主车以40kph进AD，车身与轨迹向右偏差20cm（尚未触发lane departure） (平直路)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>平直路</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CC-3-2-8</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>主车以40kph进AD，车身与轨迹向右偏差20cm（尚未触发lane departure） (500m_curve)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CC-3-2-9</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>主车以40kph进AD，车身与轨迹向右偏差20cm（尚未触发lane departure） (700m_curve)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CC-3-2-10</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>主车以60kph进AD，车身与轨迹向右偏差20cm（尚未触发lane departure） (平直路)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>平直路</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CC-3-2-11</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>主车以60kph进AD，车身与轨迹向右偏差20cm（尚未触发lane departure） (500m_curve)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>CC-3-2-12</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>主车以60kph进AD，车身与轨迹向右偏差20cm（尚未触发lane departure） (700m_curve)</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>CC-3-2-13</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>主车以40kph进AD，车身与轨迹向右偏差30cm（尚未触发lane departure） (平直路)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>平直路</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>CC-3-2-14</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>主车以40kph进AD，车身与轨迹向右偏差30cm（尚未触发lane departure） (500m_curve)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>CC-3-2-15</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>主车以40kph进AD，车身与轨迹向右偏差30cm（尚未触发lane departure） (700m_curve)</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>CC-3-2-16</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>主车以60kph进AD，车身与轨迹向右偏差30cm（尚未触发lane departure） (平直路)</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>平直路</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>CC-3-2-17</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>主车以60kph进AD，车身与轨迹向右偏差30cm（尚未触发lane departure） (500m_curve)</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>CC-3-2-18</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>主车以60kph进AD，车身与轨迹向右偏差30cm（尚未触发lane departure） (700m_curve)</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
           <t>CC-8-1-1</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在平直路 (平直路)</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>sunny</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>noload</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>80kph</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
         <is>
           <t>sedan</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>平直路</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>初始速度80或100kph</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>1）初速度0kph
 2）与主车同车道；
 3）在主车前方400m处，平直路上；</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
         <is>
           <t xml:space="preserve">1）主车能够正确响应目标车；
 2）主车应当及时发现目标并减速，减速不能太早或过晚；
@@ -1482,75 +4906,75 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>CC-8-2-1</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在弯中 (700mcurve)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>sunny</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>noload</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>80kph</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在弯中 (700m_curve)</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
         <is>
           <t>sedan</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>curve</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>初始速度80或100kph</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>1）初速度0kph
 2）与主车同车道；
 3）在主车前方400m处，弯中；</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
         <is>
           <t xml:space="preserve">1）主车能够正确响应目标车；
 2）主车应当及时发现目标并减速，减速不能太早或过晚；
@@ -1561,75 +4985,75 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>CC-8-3-1</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在出弯处 (700mcurve)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>sunny</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>noload</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>80kph</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在出弯处 (700m_curve)</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
         <is>
           <t>sedan</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>curve</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>初始速度80或100kph</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>1）初速度0kph
 2）与主车同车道；
 3）在主车前方400m处，出弯处；</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
         <is>
           <t xml:space="preserve">1）主车能够正确响应目标车；
 2）主车应当及时发现目标并减速，减速不能太早或过晚；
@@ -1640,75 +5064,75 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>CC-8-4-1</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在上坡 (3%uphill)</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>sunny</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>noload</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>80kph</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在上坡 (3%_uphill)</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
         <is>
           <t>sedan</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>uphill</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>初始速度80或100kph</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>1）初速度0kph
 2）与主车同车道；
 3）在主车前方400m处，上坡；</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
         <is>
           <t xml:space="preserve">1）主车能够正确响应目标车；
 2）主车应当及时发现目标并减速，减速不能太早或过晚；
@@ -1719,75 +5143,75 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>CC-8-5-1</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在坡顶 (3%uphill)</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>sunny</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>noload</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>80kph</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在坡顶 (3%_uphill)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
         <is>
           <t>sedan</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>uphill</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>初始速度80或100kph</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>1）初速度0kph
 2）与主车同车道；
 3）在主车前方400m处，坡顶；</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
         <is>
           <t xml:space="preserve">1）主车能够正确响应目标车；
 2）主车应当及时发现目标并减速，减速不能太早或过晚；
@@ -1798,76 +5222,76 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>CC-11-1-1</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>目标车从侧后方高速cutin后减速。目标车从tv_initial减速至tv_target，减速度tv_acc，相对主车距离relative_dis。主车以限速行驶并响应 (平直路)</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>sunny</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>noload</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>80kph</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-1mpss，相对主车距离30m。主车以限速行驶并响应 (平直路)</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
         <is>
           <t>sedan</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>平直路</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>初始速度80或100kph</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>1）初速度120kph
 2）与主车相邻车道
 3）在目标车后方100m</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>1）超越本车30m时，目标车cutin；
 2）cutin后以1mps减速度，从120减速到40kph；</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="N65" t="inlineStr">
         <is>
           <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
 2）主车应当及时发现目标并减速，减速不能太早或过晚；
@@ -1877,76 +5301,76 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>CC-11-1-2</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>目标车从侧后方高速cutin后减速。目标车从tv_initial减速至tv_target，减速度tv_acc，相对主车距离relative_dis。主车以限速行驶并响应 (700mcurve)</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>sunny</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>noload</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>80kph</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-1mpss，相对主车距离30m。主车以限速行驶并响应 (700m_curve)</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
         <is>
           <t>sedan</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>curve</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>初始速度80或100kph</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>1）初速度120kph
 2）与主车相邻车道
 3）在目标车后方100m</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>1）超越本车30m时，目标车cutin；
 2）cutin后以1mps减速度，从120减速到40kph；</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="N66" t="inlineStr">
         <is>
           <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
 2）主车应当及时发现目标并减速，减速不能太早或过晚；
@@ -1956,76 +5380,76 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>CC-11-1-3</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>目标车从侧后方高速cutin后减速。目标车从tv_initial减速至tv_target，减速度tv_acc，相对主车距离relative_dis。主车以限速行驶并响应 (3%uphill)</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>sunny</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>noload</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>80kph</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-1mpss，相对主车距离30m。主车以限速行驶并响应 (3%_uphill)</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
         <is>
           <t>sedan</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>uphill</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>初始速度80或100kph</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>1）初速度120kph
 2）与主车相邻车道
 3）在目标车后方100m</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>1）超越本车30m时，目标车cutin；
 2）cutin后以1mps减速度，从120减速到40kph；</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="N67" t="inlineStr">
         <is>
           <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
 2）主车应当及时发现目标并减速，减速不能太早或过晚；
@@ -2035,76 +5459,76 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>CC-11-1-4</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>目标车从侧后方高速cutin后减速。目标车从tv_initial减速至tv_target，减速度tv_acc，相对主车距离relative_dis。主车以限速行驶并响应 (3%downhill)</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>sunny</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>noload</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>80kph</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-1mpss，相对主车距离30m。主车以限速行驶并响应 (3%_downhill)</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
         <is>
           <t>sedan</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>downhill</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>初始速度80或100kph</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>1）初速度120kph
 2）与主车相邻车道
 3）在目标车后方100m</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>1）超越本车30m时，目标车cutin；
 2）cutin后以1mps减速度，从120减速到40kph；</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="N68" t="inlineStr">
         <is>
           <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
 2）主车应当及时发现目标并减速，减速不能太早或过晚；
@@ -2114,6 +5538,2534 @@
         </is>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>CC-11-1-5</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-3mpss，相对主车距离30m。主车以限速行驶并响应 (平直路)</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>平直路</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>CC-11-1-6</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-3mpss，相对主车距离30m。主车以限速行驶并响应 (700m_curve)</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>CC-11-1-7</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-3mpss，相对主车距离30m。主车以限速行驶并响应 (3%_uphill)</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>uphill</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>CC-11-1-8</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-3mpss，相对主车距离30m。主车以限速行驶并响应 (3%_downhill)</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>downhill</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>CC-11-1-9</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-5mpss，相对主车距离30m。主车以限速行驶并响应 (平直路)</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>平直路</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>CC-11-1-10</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-5mpss，相对主车距离30m。主车以限速行驶并响应 (700m_curve)</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>CC-11-1-11</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-5mpss，相对主车距离30m。主车以限速行驶并响应 (3%_uphill)</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>uphill</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>CC-11-1-12</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-5mpss，相对主车距离30m。主车以限速行驶并响应 (3%_downhill)</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>downhill</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>CC-11-1-13</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-1mpss，相对主车距离40m。主车以限速行驶并响应 (平直路)</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>平直路</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>CC-11-1-14</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-1mpss，相对主车距离40m。主车以限速行驶并响应 (700m_curve)</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>CC-11-1-15</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-1mpss，相对主车距离40m。主车以限速行驶并响应 (3%_uphill)</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>uphill</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>CC-11-1-16</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-1mpss，相对主车距离40m。主车以限速行驶并响应 (3%_downhill)</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>downhill</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>CC-11-1-17</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-3mpss，相对主车距离40m。主车以限速行驶并响应 (平直路)</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>平直路</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>CC-11-1-18</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-3mpss，相对主车距离40m。主车以限速行驶并响应 (700m_curve)</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>CC-11-1-19</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-3mpss，相对主车距离40m。主车以限速行驶并响应 (3%_uphill)</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>uphill</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>CC-11-1-20</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-3mpss，相对主车距离40m。主车以限速行驶并响应 (3%_downhill)</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>downhill</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>CC-11-1-21</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-5mpss，相对主车距离40m。主车以限速行驶并响应 (平直路)</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>平直路</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>CC-11-1-22</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-5mpss，相对主车距离40m。主车以限速行驶并响应 (700m_curve)</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>CC-11-1-23</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-5mpss，相对主车距离40m。主车以限速行驶并响应 (3%_uphill)</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>uphill</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>CC-11-1-24</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-5mpss，相对主车距离40m。主车以限速行驶并响应 (3%_downhill)</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>downhill</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>CC-11-1-25</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-1mpss，相对主车距离50m。主车以限速行驶并响应 (平直路)</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>平直路</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>CC-11-1-26</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-1mpss，相对主车距离50m。主车以限速行驶并响应 (700m_curve)</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>CC-11-1-27</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-1mpss，相对主车距离50m。主车以限速行驶并响应 (3%_uphill)</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>uphill</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>CC-11-1-28</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-1mpss，相对主车距离50m。主车以限速行驶并响应 (3%_downhill)</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>downhill</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>CC-11-1-29</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-3mpss，相对主车距离50m。主车以限速行驶并响应 (平直路)</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>平直路</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>CC-11-1-30</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-3mpss，相对主车距离50m。主车以限速行驶并响应 (700m_curve)</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>CC-11-1-31</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-3mpss，相对主车距离50m。主车以限速行驶并响应 (3%_uphill)</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>uphill</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>CC-11-1-32</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-3mpss，相对主车距离50m。主车以限速行驶并响应 (3%_downhill)</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>downhill</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>CC-11-1-33</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-5mpss，相对主车距离50m。主车以限速行驶并响应 (平直路)</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>平直路</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>CC-11-1-34</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-5mpss，相对主车距离50m。主车以限速行驶并响应 (700m_curve)</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>CC-11-1-35</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-5mpss，相对主车距离50m。主车以限速行驶并响应 (3%_uphill)</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>uphill</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>CC-11-1-36</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-5mpss，相对主车距离50m。主车以限速行驶并响应 (3%_downhill)</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>sunny</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>noload</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>80kph</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>sedan</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>downhill</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/concrete_case/cc_veh_noload.xlsx
+++ b/concrete_case/cc_veh_noload.xlsx
@@ -544,6 +544,34 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -591,6 +619,34 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -638,6 +694,34 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -685,6 +769,34 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -732,6 +844,34 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -779,6 +919,34 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -826,6 +994,34 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -873,6 +1069,34 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -920,6 +1144,34 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -967,6 +1219,34 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1014,6 +1294,35 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）能够在合理时间加速到限速；
+5）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1061,6 +1370,35 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）能够在合理时间加速到限速；
+5）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1108,6 +1446,35 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）能够在合理时间加速到限速；
+5）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1155,6 +1522,35 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）能够在合理时间加速到限速；
+5）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1202,6 +1598,35 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）能够在合理时间加速到限速；
+5）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1249,6 +1674,35 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）能够在合理时间加速到限速；
+5）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1296,6 +1750,35 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）能够在合理时间加速到限速；
+5）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1343,6 +1826,35 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）能够在合理时间加速到限速；
+5）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1390,6 +1902,35 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）能够在合理时间加速到限速；
+5）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1437,6 +1978,35 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）能够在合理时间加速到限速；
+5）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1484,6 +2054,35 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）能够在合理时间加速到限速；
+5）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1531,6 +2130,35 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）能够在合理时间加速到限速；
+5）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1578,6 +2206,35 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）能够在合理时间加速到限速；
+5）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1625,6 +2282,35 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）能够在合理时间加速到限速；
+5）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1672,6 +2358,35 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）能够在合理时间加速到限速；
+5）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1719,6 +2434,35 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）能够在合理时间加速到限速；
+5）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1766,6 +2510,35 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）能够在合理时间加速到限速；
+5）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1813,6 +2586,35 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>1）以限速车速稳定巡航，允许有少量波动；
+2）档位合理，油耗经济；
+3）在较小减速时，需要发动机制动，避免不必要的EBS制动；
+4）能够在合理时间加速到限速；
+5）车道保持，允许在短时间少量偏移轨迹，但不允许偏移过多，或者偏移时间过长；</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1860,6 +2662,33 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1907,6 +2736,33 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1954,6 +2810,33 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2001,6 +2884,33 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2048,6 +2958,33 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2095,6 +3032,33 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2142,6 +3106,33 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2189,6 +3180,33 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2236,6 +3254,33 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2283,6 +3328,33 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2330,6 +3402,33 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2377,6 +3476,33 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2424,6 +3550,33 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2471,6 +3624,33 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2518,6 +3698,33 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2565,6 +3772,33 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2612,6 +3846,33 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2659,6 +3920,33 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2706,6 +3994,33 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2753,6 +4068,33 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2800,6 +4142,33 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2847,6 +4216,33 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2894,6 +4290,33 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2941,6 +4364,33 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2988,6 +4438,33 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3035,6 +4512,33 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3082,6 +4586,33 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3129,6 +4660,33 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3176,6 +4734,33 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3223,6 +4808,33 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3270,6 +4882,33 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3317,6 +4956,33 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3364,6 +5030,33 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3411,6 +5104,33 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3458,6 +5178,33 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3505,6 +5252,33 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>初速度40kph</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
+2）方向的调整幅度不能过大，次数不能过多；
+3）方向调整的速率不能过快；</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3552,6 +5326,35 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3599,6 +5402,35 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3646,6 +5478,35 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3693,6 +5554,35 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3740,6 +5630,35 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3787,6 +5706,35 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3834,6 +5782,35 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3881,6 +5858,35 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3928,6 +5934,35 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3975,6 +6010,35 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4022,6 +6086,35 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4069,6 +6162,35 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4116,6 +6238,35 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4163,6 +6314,35 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4210,6 +6390,35 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4257,6 +6466,35 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4304,6 +6542,35 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4351,6 +6618,35 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4398,6 +6694,35 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4445,6 +6770,35 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4492,6 +6846,35 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4539,6 +6922,35 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4586,6 +6998,35 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4633,6 +7074,35 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4680,6 +7150,35 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4727,6 +7226,35 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4774,6 +7302,35 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4821,6 +7378,35 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4868,6 +7454,35 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4915,6 +7530,35 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4962,6 +7606,35 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5009,6 +7682,35 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5056,6 +7758,35 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5103,6 +7834,35 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5150,6 +7910,35 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5197,6 +7986,35 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5244,6 +8062,35 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5291,6 +8138,35 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5338,6 +8214,35 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5385,6 +8290,35 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>初速度80kph</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>1）初速度20kph
+2）与主车同车道；
+3）在主车前方200m处</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车与目标车达到跟车稳态后，跟车时距合理，不会太远也不会太近；
+3）主车与目标车达到跟车稳态后，车速平稳，无异常波动，与目标车的速度偏差不超过K值范围；</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5432,6 +8366,38 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5479,6 +8445,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5526,6 +8524,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5573,6 +8603,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5620,6 +8682,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5667,6 +8761,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5714,6 +8840,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5761,6 +8919,38 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5808,6 +8998,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5855,6 +9077,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5902,6 +9156,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5949,6 +9235,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5996,6 +9314,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6043,6 +9393,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6090,6 +9472,38 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6137,6 +9551,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6184,6 +9630,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -6231,6 +9709,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6278,6 +9788,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -6325,6 +9867,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -6372,6 +9946,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -6419,6 +10025,38 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -6466,6 +10104,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -6513,6 +10183,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -6560,6 +10262,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -6607,6 +10341,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6654,6 +10420,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -6701,6 +10499,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6748,6 +10578,38 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6795,6 +10657,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6842,6 +10736,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6889,6 +10815,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6936,6 +10894,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6983,6 +10973,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7030,6 +11052,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7077,6 +11131,38 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -7124,6 +11210,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -7171,6 +11289,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -7218,6 +11368,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -7265,6 +11447,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -7312,6 +11526,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -7359,6 +11605,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>1）初始速度40kph；
+2）与主车同车道；
+3）在目标车前方100m处；</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mpss加速到70kph</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车加速后，主车能及时加速，加速不能太早或过晚；
+3）主车加速过程应当平稳，无过大过急的加速度，或加减速反复的现象；
+4）主车最终与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -7406,6 +11684,38 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -7453,6 +11763,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -7500,6 +11842,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -7547,6 +11921,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -7594,6 +12000,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -7641,6 +12079,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -7688,6 +12158,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -7735,6 +12237,38 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -7782,6 +12316,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -7829,6 +12395,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -7876,6 +12474,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -7923,6 +12553,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7970,6 +12632,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -8017,6 +12711,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -8064,6 +12790,38 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8111,6 +12869,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8158,6 +12948,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -8205,6 +13027,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -8252,6 +13106,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -8299,6 +13185,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -8346,6 +13264,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -8393,6 +13343,38 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -8440,6 +13422,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -8487,6 +13501,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -8534,6 +13580,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -8581,6 +13659,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -8628,6 +13738,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -8675,6 +13817,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -8722,6 +13896,38 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -8769,6 +13975,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -8816,6 +14054,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -8863,6 +14133,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -8910,6 +14212,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -8957,6 +14291,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -9004,6 +14370,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -9051,6 +14449,38 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -9098,6 +14528,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -9145,6 +14607,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -9192,6 +14686,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -9239,6 +14765,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -9286,6 +14844,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -9333,6 +14923,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -9380,6 +15002,38 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -9427,6 +15081,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -9474,6 +15160,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -9521,6 +15239,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -9568,6 +15318,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -9615,6 +15397,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -9662,6 +15476,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -9709,6 +15555,38 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -9756,6 +15634,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -9803,6 +15713,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -9850,6 +15792,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -9897,6 +15871,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -9944,6 +15950,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -9991,6 +16029,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以1mps从60kph减速至0kph</t>
+        </is>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）目标车减速后，主车能及时减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间；</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -10038,6 +16108,38 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以3mps从60kph减速至0kph
+3）待主车跟停后，目标车在1min后驶离，以3mpss加速到40kph；</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>当目标车静止时间不同时，主车应当有不同的响应策略：
+1）目标车静止时间小于K01值，主车采用EBS制动；
+2）目标车静止时间在K01-K02之间，主车拉起EPB制动；
+3）目标车静止时间大于K02值，主车fallback；</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -10085,6 +16187,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以3mps从60kph减速至0kph
+3）待主车跟停后，目标车在1min后驶离，以3mpss加速到40kph；</t>
+        </is>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>当目标车静止时间不同时，主车应当有不同的响应策略：
+1）目标车静止时间小于K01值，主车采用EBS制动；
+2）目标车静止时间在K01-K02之间，主车拉起EPB制动；
+3）目标车静止时间大于K02值，主车fallback；</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -10132,6 +16266,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以3mps从60kph减速至0kph
+3）待主车跟停后，目标车在1min后驶离，以3mpss加速到40kph；</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>当目标车静止时间不同时，主车应当有不同的响应策略：
+1）目标车静止时间小于K01值，主车采用EBS制动；
+2）目标车静止时间在K01-K02之间，主车拉起EPB制动；
+3）目标车静止时间大于K02值，主车fallback；</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -10179,6 +16345,38 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以3mps从60kph减速至0kph
+3）待主车跟停后，目标车在5min后驶离，以3mpss加速到40kph；</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>当目标车静止时间不同时，主车应当有不同的响应策略：
+1）目标车静止时间小于K01值，主车采用EBS制动；
+2）目标车静止时间在K01-K02之间，主车拉起EPB制动；
+3）目标车静止时间大于K02值，主车fallback；</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -10226,6 +16424,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以3mps从60kph减速至0kph
+3）待主车跟停后，目标车在5min后驶离，以3mpss加速到40kph；</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>当目标车静止时间不同时，主车应当有不同的响应策略：
+1）目标车静止时间小于K01值，主车采用EBS制动；
+2）目标车静止时间在K01-K02之间，主车拉起EPB制动；
+3）目标车静止时间大于K02值，主车fallback；</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -10273,6 +16503,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以3mps从60kph减速至0kph
+3）待主车跟停后，目标车在5min后驶离，以3mpss加速到40kph；</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>当目标车静止时间不同时，主车应当有不同的响应策略：
+1）目标车静止时间小于K01值，主车采用EBS制动；
+2）目标车静止时间在K01-K02之间，主车拉起EPB制动；
+3）目标车静止时间大于K02值，主车fallback；</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -10320,6 +16582,38 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以3mps从60kph减速至0kph
+3）待主车跟停后，目标车在8min后驶离，以3mpss加速到40kph；</t>
+        </is>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>当目标车静止时间不同时，主车应当有不同的响应策略：
+1）目标车静止时间小于K01值，主车采用EBS制动；
+2）目标车静止时间在K01-K02之间，主车拉起EPB制动；
+3）目标车静止时间大于K02值，主车fallback；</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -10367,6 +16661,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以3mps从60kph减速至0kph
+3）待主车跟停后，目标车在8min后驶离，以3mpss加速到40kph；</t>
+        </is>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>当目标车静止时间不同时，主车应当有不同的响应策略：
+1）目标车静止时间小于K01值，主车采用EBS制动；
+2）目标车静止时间在K01-K02之间，主车拉起EPB制动；
+3）目标车静止时间大于K02值，主车fallback；</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -10414,6 +16740,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以3mps从60kph减速至0kph
+3）待主车跟停后，目标车在8min后驶离，以3mpss加速到40kph；</t>
+        </is>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>当目标车静止时间不同时，主车应当有不同的响应策略：
+1）目标车静止时间小于K01值，主车采用EBS制动；
+2）目标车静止时间在K01-K02之间，主车拉起EPB制动；
+3）目标车静止时间大于K02值，主车fallback；</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -10461,6 +16819,38 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以3mps从60kph减速至0kph
+3）待主车跟停后，目标车在12min后驶离，以3mpss加速到40kph；</t>
+        </is>
+      </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>当目标车静止时间不同时，主车应当有不同的响应策略：
+1）目标车静止时间小于K01值，主车采用EBS制动；
+2）目标车静止时间在K01-K02之间，主车拉起EPB制动；
+3）目标车静止时间大于K02值，主车fallback；</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -10508,6 +16898,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以3mps从60kph减速至0kph
+3）待主车跟停后，目标车在12min后驶离，以3mpss加速到40kph；</t>
+        </is>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>当目标车静止时间不同时，主车应当有不同的响应策略：
+1）目标车静止时间小于K01值，主车采用EBS制动；
+2）目标车静止时间在K01-K02之间，主车拉起EPB制动；
+3）目标车静止时间大于K02值，主车fallback；</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -10555,6 +16977,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>初始速度80kph</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>1）初始速度60kph
+2）与主车同车道；
+3）在主车前方50m处</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>1）待主车稳定跟随目标车；
+2）目标车以3mps从60kph减速至0kph
+3）待主车跟停后，目标车在12min后驶离，以3mpss加速到40kph；</t>
+        </is>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>当目标车静止时间不同时，主车应当有不同的响应策略：
+1）目标车静止时间小于K01值，主车采用EBS制动；
+2）目标车静止时间在K01-K02之间，主车拉起EPB制动；
+3）目标车静止时间大于K02值，主车fallback；</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -10602,6 +17056,37 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>1）初速度0kph
+2）与主车同车道；
+3）在主车前方400m处，平直路上；</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -10649,6 +17134,37 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>1）初速度0kph
+2）与主车同车道；
+3）在主车前方400m处，弯中；</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -10696,6 +17212,37 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>1）初速度0kph
+2）与主车同车道；
+3）在主车前方400m处，出弯处；</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -10743,6 +17290,37 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>1）初速度0kph
+2）与主车同车道；
+3）在主车前方400m处，上坡；</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -10790,6 +17368,37 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>1）初速度0kph
+2）与主车同车道；
+3）在主车前方400m处，坡顶；</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -10837,6 +17446,38 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -10884,6 +17525,38 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -10931,6 +17604,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -10978,6 +17683,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -11025,6 +17762,38 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -11072,6 +17841,38 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -11119,6 +17920,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -11166,6 +17999,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -11213,6 +18078,38 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -11260,6 +18157,38 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -11307,6 +18236,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -11354,6 +18315,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -11401,6 +18394,38 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -11448,6 +18473,38 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -11495,6 +18552,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -11542,6 +18631,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -11589,6 +18710,38 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -11636,6 +18789,38 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -11683,6 +18868,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -11730,6 +18947,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -11777,6 +19026,38 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -11824,6 +19105,38 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -11871,6 +19184,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -11918,6 +19263,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -11965,6 +19342,38 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -12012,6 +19421,38 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -12059,6 +19500,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -12106,6 +19579,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -12153,6 +19658,38 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -12200,6 +19737,38 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -12247,6 +19816,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -12294,6 +19895,38 @@
           <t>downhill</t>
         </is>
       </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -12341,6 +19974,38 @@
           <t>平直路</t>
         </is>
       </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -12388,6 +20053,38 @@
           <t>curve</t>
         </is>
       </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -12435,6 +20132,38 @@
           <t>uphill</t>
         </is>
       </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -12480,6 +20209,38 @@
       <c r="I256" t="inlineStr">
         <is>
           <t>downhill</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>初始速度80或100kph</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>1）初速度120kph
+2）与主车相邻车道
+3）在目标车后方100m</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>1）超越本车30m时，目标车cutin；
+2）cutin后以1mps减速度，从120减速到40kph；</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
+2）主车应当及时发现目标并减速，减速不能太早或过晚；
+3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
+4）主车最终能与目标车重新达到跟车稳态；
+5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
         </is>
       </c>
     </row>
